--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,22 +40,28 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>negative</t>
@@ -64,48 +70,30 @@
     <t>worse</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>dangerous</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>disturbing</t>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>hate</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
@@ -115,6 +103,9 @@
     <t>bad</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
@@ -127,37 +118,34 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>social</t>
+  </si>
+  <si>
+    <t>media</t>
   </si>
   <si>
     <t>positive</t>
@@ -518,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,10 +514,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -640,10 +628,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -687,13 +675,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -705,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -737,13 +725,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9326923076923077</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -755,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.8333333333333334</v>
+        <v>0.86</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -779,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -787,13 +775,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -805,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.82</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -829,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -837,13 +825,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C8">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -855,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.6842105263157895</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -879,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -887,13 +875,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -905,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -929,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -937,13 +925,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.5600000000000001</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -979,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -987,13 +975,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,19 +993,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.4827586206896552</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1037,13 +1025,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,19 +1043,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.4736842105263158</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1079,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1087,13 +1075,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1105,19 +1093,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.4333333333333333</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1129,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1137,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1155,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.3888888888888889</v>
+        <v>0.04553734061930783</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1179,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,10 +1178,10 @@
         <v>0.6</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1205,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.2592592592592592</v>
+        <v>0.01054216867469879</v>
       </c>
       <c r="L15">
         <v>7</v>
@@ -1229,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1237,7 +1225,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5625</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -1255,31 +1243,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16">
-        <v>0.03916211293260474</v>
-      </c>
-      <c r="L16">
-        <v>43</v>
-      </c>
-      <c r="M16">
-        <v>43</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>1055</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1290,10 +1254,10 @@
         <v>0.5</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1305,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1313,13 +1277,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1331,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1339,13 +1303,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4565217391304348</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1357,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1365,13 +1329,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4285714285714285</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1383,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1391,13 +1355,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4230769230769231</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1409,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1417,7 +1381,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.391304347826087</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -1435,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1443,13 +1407,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.375</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1461,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1469,13 +1433,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3714285714285714</v>
+        <v>0.25</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1487,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1495,13 +1459,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3191489361702128</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1513,85 +1477,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.1794871794871795</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
